--- a/Files/Vaccine_November 5, 2008.xlsx
+++ b/Files/Vaccine_November 5, 2008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="210">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Kinrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$32.25</t>
@@ -106,6 +106,9 @@
     <t xml:space="preserve">$48.00</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes </t>
+  </si>
+  <si>
     <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t xml:space="preserve">$72.91</t>
   </si>
   <si>
+    <t xml:space="preserve">DTaP-Hib </t>
+  </si>
+  <si>
     <t xml:space="preserve">TriHIBit</t>
   </si>
   <si>
@@ -163,7 +169,7 @@
     <t xml:space="preserve">$26.34</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B </t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -217,7 +223,7 @@
     <t xml:space="preserve">$78.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -229,7 +235,7 @@
     <t xml:space="preserve">$21.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -241,7 +247,7 @@
     <t xml:space="preserve">$23.20</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B 2 dose Adolescent (11-15)</t>
+    <t xml:space="preserve">Hepatitis B 2 dose  Adolescent (11-15)</t>
   </si>
   <si>
     <t xml:space="preserve">$24.25</t>
@@ -319,7 +325,7 @@
     <t xml:space="preserve">$46.54</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -499,7 +505,7 @@
     <t xml:space="preserve">$32.20</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  DiphtheriaToxoids  </t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids  </t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids
@@ -522,7 +528,7 @@
     <t xml:space="preserve">Zostavax</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vial 1 pack-single dose 0.65mL vials </t>
+    <t xml:space="preserve">10 pack - 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$107.67</t>
@@ -531,13 +537,16 @@
     <t xml:space="preserve">$153.93</t>
   </si>
   <si>
+    <t xml:space="preserve">1 pack-single dose 0.65mL vials </t>
+  </si>
+  <si>
     <t xml:space="preserve">$113.16</t>
   </si>
   <si>
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -549,7 +558,7 @@
     <t xml:space="preserve">$11.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -566,7 +575,7 @@
     <t xml:space="preserve">$14.93</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">$14.247</t>
@@ -605,7 +614,7 @@
     <t xml:space="preserve">$15.54</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 18 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluarix Preservative-free FluLaval </t>
@@ -623,7 +632,7 @@
     <t xml:space="preserve">$11.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age 2-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist
@@ -953,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -973,10 +982,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -985,10 +994,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>39903</v>
@@ -1002,10 +1011,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1014,10 +1023,10 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1">
         <v>39903</v>
@@ -1031,22 +1040,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1">
         <v>39903</v>
@@ -1060,22 +1069,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1">
         <v>39903</v>
@@ -1089,22 +1098,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1">
         <v>39903</v>
@@ -1118,22 +1127,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>39903</v>
@@ -1147,10 +1156,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1159,16 +1168,16 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>39903</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -1176,10 +1185,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1188,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1">
         <v>39903</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1205,10 +1214,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1217,10 +1226,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1">
         <v>39903</v>
@@ -1234,10 +1243,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1246,10 +1255,10 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1">
         <v>39903</v>
@@ -1263,10 +1272,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1275,10 +1284,10 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1">
         <v>39903</v>
@@ -1292,22 +1301,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1">
         <v>39903</v>
@@ -1321,10 +1330,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1333,10 +1342,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1">
         <v>39903</v>
@@ -1350,22 +1359,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" s="1">
         <v>39903</v>
@@ -1379,10 +1388,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1391,16 +1400,16 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22" s="1">
         <v>39903</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1408,10 +1417,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1420,16 +1429,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1">
         <v>39903</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1437,10 +1446,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1449,16 +1458,16 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G24" s="1">
         <v>39903</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1466,22 +1475,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G25" s="1">
         <v>39903</v>
@@ -1495,10 +1504,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1507,16 +1516,16 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G26" s="1">
         <v>39903</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1524,10 +1533,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1536,16 +1545,16 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G27" s="1">
         <v>39903</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1553,22 +1562,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G28" s="1">
         <v>39903</v>
@@ -1582,10 +1591,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1594,16 +1603,16 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G29" s="1">
         <v>39903</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1611,28 +1620,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G30" s="1">
         <v>39903</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1640,28 +1649,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G31" s="1">
         <v>39903</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1669,10 +1678,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1681,10 +1690,10 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G32" s="1">
         <v>39903</v>
@@ -1698,22 +1707,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G33" s="1">
         <v>39903</v>
@@ -1727,10 +1736,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1739,10 +1748,10 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G34" s="1">
         <v>39903</v>
@@ -1756,10 +1765,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1768,10 +1777,10 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G35" s="1">
         <v>39903</v>
@@ -1785,22 +1794,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
         <v>125</v>
       </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G36" s="1">
         <v>39903</v>
@@ -1814,10 +1823,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1826,10 +1835,10 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G37" s="1">
         <v>39903</v>
@@ -1843,22 +1852,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G38" s="1">
         <v>39903</v>
@@ -1872,10 +1881,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1884,16 +1893,16 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G39" s="1">
         <v>39903</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
@@ -1946,28 +1955,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2" s="1">
         <v>39994</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -1975,10 +1984,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1987,16 +1996,16 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1">
         <v>39994</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -2004,10 +2013,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2016,10 +2025,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1">
         <v>39994</v>
@@ -2033,22 +2042,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G5" s="1">
         <v>39994</v>
@@ -2062,10 +2071,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2074,10 +2083,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1">
         <v>39994</v>
@@ -2091,22 +2100,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="1">
         <v>39994</v>
@@ -2120,28 +2129,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G8" s="1">
         <v>39994</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2149,10 +2158,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2161,16 +2170,16 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1">
         <v>39994</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2178,28 +2187,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="1">
         <v>39994</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -2207,10 +2216,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2219,10 +2228,10 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G11" s="1">
         <v>39994</v>
@@ -2236,22 +2245,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G12" s="1">
         <v>39994</v>
@@ -2265,28 +2274,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G13" s="1">
         <v>39994</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -2294,28 +2303,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G14" s="1">
         <v>39994</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -2323,10 +2332,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -2335,16 +2344,16 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1">
         <v>39994</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -2352,28 +2361,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G16" s="1">
         <v>39994</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -2381,28 +2390,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G17" s="1">
         <v>39994</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -2455,22 +2464,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G2" s="1">
         <v>39872</v>
@@ -2484,22 +2493,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G3" s="1">
         <v>39872</v>
@@ -2513,22 +2522,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>182</v>
       </c>
-      <c r="B4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>179</v>
-      </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G4" s="1">
         <v>39872</v>
@@ -2542,10 +2551,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2554,10 +2563,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G5" s="1">
         <v>39872</v>
@@ -2571,28 +2580,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G6" s="1">
         <v>39872</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -2600,28 +2609,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1">
         <v>39872</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -2629,19 +2638,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -2658,22 +2667,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G9" s="1">
         <v>39872</v>
@@ -2687,28 +2696,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G10" s="1">
         <v>39872</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>

--- a/Files/Vaccine_November 5, 2008.xlsx
+++ b/Files/Vaccine_November 5, 2008.xlsx
@@ -508,8 +508,7 @@
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids  </t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids
-Adsorbed for Adults No Preservative</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids Adsorbed for Adults No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$13.50</t>
@@ -518,8 +517,7 @@
     <t xml:space="preserve">$18.23</t>
   </si>
   <si>
-    <t xml:space="preserve">MassBioLogics
-(Akorn, Inc)</t>
+    <t xml:space="preserve">MassBioLogics (Akorn, Inc)</t>
   </si>
   <si>
     <t xml:space="preserve">Zoster Vaccine Live</t>
@@ -561,9 +559,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
@@ -635,8 +631,7 @@
     <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose sprayers</t>
